--- a/DocsWeb/Template/(範本)114年專家學者請款明細.xlsx
+++ b/DocsWeb/Template/(範本)114年專家學者請款明細.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829990C4-5282-4C6B-A544-2E3784712E39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241212CA-3D11-4F73-A0A2-8DD81F97B8DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>工項</t>
   </si>
@@ -61,12 +61,6 @@
     <t>備註</t>
   </si>
   <si>
-    <t>欣富山國際股份有限公司</t>
-  </si>
-  <si>
-    <t>葉慶得</t>
-  </si>
-  <si>
     <t>[$Year$]年專家學者請款明細</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -96,6 +90,26 @@
   </si>
   <si>
     <t>[$PrjName$]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[$Note$]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[$Amount$]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[$CopName$]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[$BasicName$]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[$ApplyDate$]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -263,19 +277,19 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -516,86 +530,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" ht="25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -604,62 +618,64 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="25" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
-        <v>45665</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="5">
-        <v>3000</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>

--- a/DocsWeb/Template/(範本)114年專家學者請款明細.xlsx
+++ b/DocsWeb/Template/(範本)114年專家學者請款明細.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241212CA-3D11-4F73-A0A2-8DD81F97B8DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36207461-0B58-4D33-9688-61BFFEC6E862}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="項次名稱" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>工項</t>
   </si>
@@ -110,6 +123,30 @@
   </si>
   <si>
     <t>[$ApplyDate$]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>人員類別</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>職稱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>職職職</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位(系所)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>單單單</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人人</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,53 +239,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -256,39 +256,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,176 +517,209 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.6328125" style="6"/>
-    <col min="7" max="7" width="14.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="18.90625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="12.6328125" style="6"/>
+    <col min="1" max="1" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.6328125" style="1"/>
+    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.90625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" ht="25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" ht="25" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="1" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:14" ht="25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="1" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="25" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:14" ht="25" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="2" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:14" ht="25" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="M5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="N5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="25" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:14" ht="25" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="13" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="M6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="N6" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J6:K6"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DocsWeb/Template/(範本)114年專家學者請款明細.xlsx
+++ b/DocsWeb/Template/(範本)114年專家學者請款明細.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36207461-0B58-4D33-9688-61BFFEC6E862}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4D7D92-DACE-495C-BD3F-BD5C6B892BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,6 @@
     <sheet name="項次名稱" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -134,19 +121,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>職職職</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>單位(系所)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>單單單</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>人人人</t>
+    <t>[$Position$]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[$UnitName$]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[$Category$]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -274,11 +261,21 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -286,16 +283,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,7 +507,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -537,98 +524,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="11" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="11" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" ht="25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -637,32 +624,32 @@
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="15"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" ht="25" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -671,32 +658,32 @@
       <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="16" t="s">
+      <c r="K6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="15"/>
+      <c r="N6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/DocsWeb/Template/(範本)114年專家學者請款明細.xlsx
+++ b/DocsWeb/Template/(範本)114年專家學者請款明細.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4D7D92-DACE-495C-BD3F-BD5C6B892BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F76A8C3-ADFD-4446-9547-70DA6BC2995B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,18 +507,19 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.6328125" style="1"/>
-    <col min="7" max="7" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6328125" style="1"/>
+    <col min="6" max="6" width="1.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="52.81640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.90625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.6328125" style="1"/>
   </cols>

--- a/DocsWeb/Template/(範本)114年專家學者請款明細.xlsx
+++ b/DocsWeb/Template/(範本)114年專家學者請款明細.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\DocsWeb\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vm4b\web\pj4\Esdms\DocsWeb\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F76A8C3-ADFD-4446-9547-70DA6BC2995B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCDBDEB-B85F-48D2-AFE7-37859D390DFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,10 +516,10 @@
     <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.6328125" style="1"/>
     <col min="6" max="6" width="1.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="60.54296875" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.90625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.6328125" style="1"/>
   </cols>
